--- a/Source/WaterProjectBillTemplate.xlsx
+++ b/Source/WaterProjectBillTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahdx\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\source\repos\WaterProject\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C4664D-25BC-4B18-A7F9-6E5D204F38F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23775" windowHeight="15015"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing Statement" sheetId="1" r:id="rId1"/>
@@ -82,53 +83,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF004DE6"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF004DE6"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF004DE6"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +137,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF004DE6"/>
-      <name val="Arial"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -420,7 +421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -490,7 +497,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -895,36 +908,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="4" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="6" max="7" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="21.75" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="7"/>
       <c r="D4" s="1"/>
@@ -935,12 +951,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="21.75" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -948,20 +964,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="21.75" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="21.75" x14ac:dyDescent="0.45">
       <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
@@ -969,21 +985,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="21.75" x14ac:dyDescent="0.45">
       <c r="C15" s="19" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="21.75" x14ac:dyDescent="0.45">
       <c r="C16" s="19" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C17" s="23"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -1036,7 +1052,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="35" t="s">
@@ -1047,7 +1063,7 @@
       <c r="H18" s="31"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="21.75" x14ac:dyDescent="0.45">
       <c r="C19" s="30"/>
       <c r="D19" s="19" t="s">
         <v>14</v>
@@ -1058,7 +1074,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="21.75" x14ac:dyDescent="0.45">
       <c r="C20" s="27"/>
       <c r="D20" s="19" t="s">
         <v>15</v>
@@ -1071,27 +1087,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1099,7 +1115,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;K000000
 &amp;C&amp;"Arabic Typesetting,Regular"&amp;20&amp;K004DE6بسم الله الرحمن الرحيم&amp;"-,Bold"
